--- a/docs/PTA2_DDC_80/PTA2_DDC_80_20.08.2024_output.xlsx
+++ b/docs/PTA2_DDC_80/PTA2_DDC_80_20.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L99"/>
+  <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731779394.6346982</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731779395.01326</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731779394.6346982.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731779395.01326.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>268.47</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>267.34</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>1.130000000000052</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731779395.650379</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731779397.8866084</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731779395.650379.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731779397.8866084.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>266.02</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>265.75</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.2699999999999818</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731779398.9574044</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731779403.5417528</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731779398.9574044.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731779403.5417528.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>266.41</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>268.27</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-1.859999999999957</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.7000000000000001</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731779403.616281</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731779404.3255582</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731779403.616281.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731779404.3255582.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>267.5</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>268.38</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.8799999999999955</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731779406.2982101</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731779407.7999194</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731779406.2982101.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731779407.7999194.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>266.83</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>267.86</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>1.03000000000003</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731779408.7366798</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731779409.0338886</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779408.7366798.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779409.0338886.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>268.47</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>267.34</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>1.130000000000052</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731779409.5977128</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731779411.205488</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779409.5977128.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779411.205488.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>266.02</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>265.75</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.2699999999999818</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731779412.0707252</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731779415.5506928</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779412.0707252.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779415.5506928.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>266.41</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>268.27</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-1.859999999999957</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.7000000000000001</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731779415.6116865</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731779416.2188263</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779415.6116865.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779416.2188263.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>267.5</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>268.38</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.8799999999999955</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731779417.912878</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731779419.1659584</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779417.912878.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779419.1659584.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>266.83</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>267.86</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>1.03000000000003</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731779419.9939816</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731779420.3871455</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779419.9939816.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779420.3871455.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>268.71</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>267.36</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>1.349999999999966</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731779421.2754931</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731779423.3387153</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779421.2754931.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779423.3387153.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>266.26</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>266.07</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.1899999999999977</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731779424.4068027</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731779428.5722497</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779424.4068027.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779428.5722497.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>266.74</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>268.41</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-1.670000000000016</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.63</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731779428.6746757</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731779429.5081859</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779428.6746757.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779429.5081859.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>267.85</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>268.48</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.6299999999999955</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -1267,51 +1367,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731779431.7885213</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731779433.4132667</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779431.7885213.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779433.4132667.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>267.35</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>267.91</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.5600000000000023</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -1319,51 +1425,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731779434.047387</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731779434.1545155</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779434.047387.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779434.1545155.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>268.13</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>267.46</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.6700000000000159</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -1371,51 +1483,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731779434.2717037</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731779434.744629</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731779434.2717037.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731779434.744629.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>126.68</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>126.31</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.3700000000000045</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -1423,51 +1541,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731779436.095106</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731779436.8431602</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731779436.095106.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731779436.8431602.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>125.92</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>126.38</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.4599999999999937</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -1475,51 +1599,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731779437.5269387</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731779437.7811306</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731779437.5269387.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731779437.7811306.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>126.92</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>126.48</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.4399999999999977</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -1527,51 +1657,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731779438.7676136</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731779440.56229</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731779438.7676136.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731779440.56229.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>127.27</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>126.71</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.5600000000000023</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -1579,51 +1715,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731779443.5923295</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731779447.528239</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731779443.5923295.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731779447.528239.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>126.92</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>126.14</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.7800000000000011</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.61</v>
       </c>
     </row>
@@ -1631,51 +1773,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731779449.7844706</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731779451.2407491</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731779449.7844706.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731779451.2407491.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>6095.5</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>6099</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>3.5</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1683,51 +1831,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731779453.0221426</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731779453.774638</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731779453.0221426.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731779453.774638.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>6105</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>6099</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>6</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1735,51 +1889,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731779454.1254525</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731779457.6298926</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731779454.1254525.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731779457.6298926.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>6126</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>6177.5</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-51.5</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.84</v>
       </c>
     </row>
@@ -1787,51 +1947,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731779459.0219514</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731779459.86604</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731779459.0219514.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731779459.86604.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>6213.5</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>6203.5</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>10</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -1839,95 +2005,107 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731779462.3222563</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731779462.3222563.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731779462.3222563.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>6232</v>
       </c>
-      <c r="J28" t="n">
-        <v>6232</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>6237</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-5</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731779463.0657263</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731779463.5922394</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779463.0657263.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779463.5922394.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>485.95</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>484</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>1.949999999999989</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -1935,51 +2113,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731779464.895471</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731779466.3736944</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779464.895471.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779466.3736944.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>481</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>482.3</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>1.300000000000011</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1987,51 +2171,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731779467.187367</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731779467.9330475</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779467.187367.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779467.9330475.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>484.05</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>482.95</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>1.100000000000023</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -2039,51 +2229,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731779469.5678518</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731779472.0234747</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779469.5678518.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779472.0234747.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>486.6</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>486.85</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.25</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -2091,51 +2287,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731779472.301081</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731779472.7149677</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779472.301081.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779472.7149677.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>486.25</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>487.95</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>1.699999999999989</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -2143,51 +2345,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731779474.8142352</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731779476.3627548</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779474.8142352.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779476.3627548.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>486.05</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>486.85</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.8000000000000114</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2195,95 +2403,107 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731779476.7436056</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731779476.7436056.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731779476.7436056.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>487.05</v>
       </c>
-      <c r="J35" t="n">
-        <v>487.05</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>486.55</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731779477.136457</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731779479.6964805</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731779477.136457.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731779479.6964805.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>212.71</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>211.42</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-1.29000000000002</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-0.61</v>
       </c>
     </row>
@@ -2291,51 +2511,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731779480.176274</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731779483.8442533</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731779480.176274.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731779483.8442533.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>212.4</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>213.49</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-1.090000000000003</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-0.51</v>
       </c>
     </row>
@@ -2343,51 +2569,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731779484.77239</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731779486.2004864</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731779484.77239.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731779486.2004864.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>212.76</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>212.46</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.2999999999999829</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -2395,51 +2627,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731779489.553154</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731779490.2232518</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731779489.553154.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731779490.2232518.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>213.08</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>212.41</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.6700000000000159</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -2447,51 +2685,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731779492.366231</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731779492.591646</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731779492.366231.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731779492.591646.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1013.6</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1017.4</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>3.799999999999955</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -2499,51 +2743,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731779494.1046102</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731779495.6863513</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731779494.1046102.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731779495.6863513.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1019.6</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1018.4</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>1.200000000000045</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2551,51 +2801,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731779496.161544</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731779496.3371658</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731779496.161544.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731779496.3371658.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1021.8</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>1019</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>2.799999999999955</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -2603,51 +2859,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731779497.5865197</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731779499.1905265</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731779497.5865197.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731779499.1905265.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>1023.6</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1025</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-1.399999999999977</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -2655,51 +2917,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731779500.6390815</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731779503.47584</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731779500.6390815.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731779503.47584.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1024</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>1023.4</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.6000000000000227</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -2707,51 +2975,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731779505.1608562</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731779506.2642808</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CNY1731779505.1608562.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CNY1731779506.2642808.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>12.145</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>12.14</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.004999999999999005</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2759,51 +3033,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731779507.3452475</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731779510.0478396</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CNY1731779507.3452475.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CNY1731779510.0478396.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>12.178</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>12.166</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.01200000000000045</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2811,51 +3091,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731779510.720347</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731779514.8106892</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/CNY1731779510.720347.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/CNY1731779514.8106892.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>12.176</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>12.219</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.04299999999999926</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>-0.35</v>
       </c>
     </row>
@@ -2863,51 +3149,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731779517.911498</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731779518.021234</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CNY1731779517.911498.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CNY1731779518.021234.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>12.211</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>12.222</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.01099999999999923</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -2915,51 +3207,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731779518.7232401</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731779520.9184587</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731779518.7232401.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731779520.9184587.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>125.3</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>125.02</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.2800000000000011</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -2967,51 +3265,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731779522.5187113</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731779525.13343</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731779522.5187113.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731779525.13343.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>125.2</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>125.04</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.1599999999999966</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -3019,51 +3323,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731779525.7458506</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731779526.2841249</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731779525.7458506.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731779526.2841249.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>125</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>125.3</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.2999999999999972</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -3071,51 +3381,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731779527.238085</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731779529.5137937</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731779527.238085.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731779529.5137937.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>124.54</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>124.84</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.2999999999999972</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -3123,51 +3439,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731779530.39558</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731779531.6185153</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731779530.39558.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731779531.6185153.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>124.48</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>124.58</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.09999999999999432</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -3175,51 +3497,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731779531.6798482</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731779532.0443065</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731779531.6798482.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731779532.0443065.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>124.78</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>124.4</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3227,51 +3555,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731779532.5698094</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731779533.3932247</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731779532.5698094.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731779533.3932247.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>158.58</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>157.3</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>1.280000000000001</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.8099999999999999</v>
       </c>
     </row>
@@ -3279,51 +3613,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731779534.3594103</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731779536.423783</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731779534.3594103.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731779536.423783.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>155.8</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>156.74</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.9399999999999977</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -3331,51 +3671,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731779536.8820598</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731779539.868116</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731779536.8820598.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731779539.868116.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>157</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>158.1</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-1.099999999999994</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>-0.7000000000000001</v>
       </c>
     </row>
@@ -3383,51 +3729,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731779541.3156893</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731779543.0000384</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731779541.3156893.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731779543.0000384.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>158.08</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>158.34</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.2599999999999909</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -3435,95 +3787,107 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731779543.0469806</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731779543.0469806.png</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731779543.0469806.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>158.14</v>
       </c>
-      <c r="J59" t="n">
-        <v>158.14</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>157.26</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.8799999999999955</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731779548.421163</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731779551.5394645</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731779548.421163.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731779551.5394645.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>47.53</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>47.49</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.03999999999999915</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -3531,51 +3895,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731779552.2297997</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731779554.3362434</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731779552.2297997.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731779554.3362434.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>47.65</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>47.585</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.06499999999999773</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -3583,51 +3953,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731779555.5264003</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731779560.3222818</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731779555.5264003.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731779560.3222818.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>47.535</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>47.175</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.3599999999999994</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>-0.76</v>
       </c>
     </row>
@@ -3635,51 +4011,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731779565.355277</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731779568.8117113</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731779565.355277.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731779568.8117113.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>1343.8</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>1350.2</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-6.400000000000091</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>-0.48</v>
       </c>
     </row>
@@ -3687,51 +4069,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731779570.0244057</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731779570.7233484</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731779570.0244057.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731779570.7233484.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>1347.4</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>1349.4</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>2</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -3739,51 +4127,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731779570.8829916</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731779574.2481444</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731779570.8829916.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731779574.2481444.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>1345.4</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>1344.6</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-0.8000000000001819</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -3791,51 +4185,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731779575.9494176</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731779579.2901814</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731779575.9494176.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731779579.2901814.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>56.78</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>56.06</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-0.7199999999999989</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>-1.27</v>
       </c>
     </row>
@@ -3843,51 +4243,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731779579.6339571</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731779583.6481369</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731779579.6339571.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731779583.6481369.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>56.15</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>56.46</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.3100000000000023</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>-0.5499999999999999</v>
       </c>
     </row>
@@ -3895,51 +4301,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731779584.2372735</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731779585.14397</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731779584.2372735.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731779585.14397.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>56.35</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>56.38</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -3947,95 +4359,107 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731779586.7818406</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731779586.7818406.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731779586.7818406.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>56.13</v>
       </c>
-      <c r="J69" t="n">
-        <v>56.13</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>55.92</v>
+      </c>
+      <c r="M69" t="n">
+        <v>-0.2100000000000009</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731779589.7491372</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731779590.359335</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731779589.7491372.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731779590.359335.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>99.54000000000001</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>98.91</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.6300000000000097</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.63</v>
       </c>
     </row>
@@ -4043,51 +4467,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731779594.1321828</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731779596.2751975</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731779594.1321828.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731779596.2751975.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>99.68000000000001</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>99.8</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>-0.1199999999999903</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -4095,51 +4525,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731779598.5923858</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731779599.071669</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731779598.5923858.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731779599.071669.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>100.4</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>99.95999999999999</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.4400000000000119</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -4147,51 +4583,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731779599.9500382</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731779603.663751</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731779599.9500382.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731779603.663751.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>99.93000000000001</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>99.7</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-0.230000000000004</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -4199,95 +4641,107 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731779603.7734985</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731779603.7734985.png</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731779603.7734985.png</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>99.97</v>
       </c>
-      <c r="J74" t="n">
-        <v>99.97</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>100.07</v>
+      </c>
+      <c r="M74" t="n">
+        <v>-0.09999999999999432</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731779607.5991323</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731779612.911489</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/SELG1731779607.5991323.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/SELG1731779612.911489.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>52.03</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>53.49</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>-1.460000000000001</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>-2.81</v>
       </c>
     </row>
@@ -4295,51 +4749,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731779612.9605813</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731779613.5386825</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/SELG1731779612.9605813.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/SELG1731779613.5386825.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>53.42</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>53.64</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -4347,51 +4807,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731779615.0802839</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731779615.9243665</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/SELG1731779615.0802839.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/SELG1731779615.9243665.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>53.39</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>53.53</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.1400000000000006</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -4399,95 +4865,107 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731779617.1113036</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731779617.1113036.png</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731779617.1113036.png</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>53.79</v>
       </c>
-      <c r="J78" t="n">
-        <v>53.79</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>53.89</v>
+      </c>
+      <c r="M78" t="n">
+        <v>-0.1000000000000014</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731779618.7511117</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731779621.4673038</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731779618.7511117.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731779621.4673038.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>148.2</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>149.24</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>1.04000000000002</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.7000000000000001</v>
       </c>
     </row>
@@ -4495,51 +4973,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731779622.1425433</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731779623.654271</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731779622.1425433.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731779623.654271.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>150</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>149.88</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -4547,51 +5031,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731779627.967266</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731779629.0745826</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731779627.967266.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731779629.0745826.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>150.32</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>150.4</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>-0.08000000000001251</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -4599,95 +5089,107 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731779635.5846193</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731779635.5846193.png</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731779635.5846193.png</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>0.3029</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.3029</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>0.3025</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.0004000000000000115</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731779640.9743974</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731779641.399561</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731779640.9743974.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731779641.399561.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>19.439</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>19.333</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0.1060000000000016</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -4695,51 +5197,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731779641.5502362</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731779644.322007</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731779641.5502362.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731779644.322007.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>19.241</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>19.216</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>-0.02499999999999858</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -4747,51 +5255,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731779645.5306304</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731779649.0274315</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731779645.5306304.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731779649.0274315.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>19.278</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>19.385</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>-0.1070000000000029</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>-0.5599999999999999</v>
       </c>
     </row>
@@ -4799,51 +5313,57 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731779649.9142284</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731779650.1673932</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731779649.9142284.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731779650.1673932.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>19.459</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>19.375</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.08399999999999963</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -4851,51 +5371,57 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731779650.3652096</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731779651.491039</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731779650.3652096.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731779651.491039.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>19.343</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>19.397</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.05399999999999849</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -4903,51 +5429,57 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731779651.5943394</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731779652.694586</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731779651.5943394.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731779652.694586.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>19.453</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>19.384</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.06899999999999906</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -4955,51 +5487,57 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731779653.4366407</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731779654.7271159</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731779653.4366407.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731779654.7271159.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>19.302</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>19.373</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.07100000000000151</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -5007,51 +5545,57 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731779655.5134387</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731779656.2916522</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731779655.5134387.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731779656.2916522.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>669.05</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>665.95</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>3.099999999999909</v>
       </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -5059,51 +5603,57 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731779656.5928707</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731779658.4934182</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731779656.5928707.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731779658.4934182.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>663.25</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>664.1</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.8500000000000227</v>
       </c>
-      <c r="L91" t="n">
+      <c r="N91" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -5111,51 +5661,57 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731779658.700391</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731779659.4405258</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731779658.700391.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731779659.4405258.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>658.8</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>661.85</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>3.050000000000068</v>
       </c>
-      <c r="L92" t="n">
+      <c r="N92" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -5163,51 +5719,57 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731779660.438012</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731779662.828224</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731779660.438012.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731779662.828224.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>664.8</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>664.65</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>0.1499999999999773</v>
       </c>
-      <c r="L93" t="n">
+      <c r="N93" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -5215,95 +5777,107 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731779664.2140498</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731779664.2140498.png</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731779664.2140498.png</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>664</v>
       </c>
-      <c r="J94" t="n">
-        <v>664</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0</v>
-      </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>659.5</v>
+      </c>
+      <c r="M94" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-0.6799999999999999</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731779668.0819786</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731779668.3440351</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731779668.0819786.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731779668.3440351.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>143.29</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>141.86</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>1.429999999999978</v>
       </c>
-      <c r="L95" t="n">
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5311,51 +5885,57 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731779669.0455806</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731779671.2170928</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731779669.0455806.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731779671.2170928.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>139.17</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>138.9</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>-0.2699999999999818</v>
       </c>
-      <c r="L96" t="n">
+      <c r="N96" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -5363,51 +5943,57 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731779671.8662508</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731779675.5034132</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731779671.8662508.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731779675.5034132.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>139.24</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>140.84</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>-1.599999999999994</v>
       </c>
-      <c r="L97" t="n">
+      <c r="N97" t="n">
         <v>-1.15</v>
       </c>
     </row>
@@ -5415,51 +6001,57 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731779675.906596</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731779677.4011023</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731779675.906596.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731779677.4011023.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>140.39</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>141</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>0.6100000000000136</v>
       </c>
-      <c r="L98" t="n">
+      <c r="N98" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -5467,44 +6059,50 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731779678.2643256</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731779678.2643256.png</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731779678.2643256.png</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>139.79</v>
       </c>
-      <c r="J99" t="n">
-        <v>139.79</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>137.94</v>
+      </c>
+      <c r="M99" t="n">
+        <v>-1.849999999999994</v>
+      </c>
+      <c r="N99" t="n">
+        <v>-1.32</v>
       </c>
     </row>
   </sheetData>
@@ -5609,19 +6207,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.600000000000023</v>
+        <v>7.100000000000023</v>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9428571428571461</v>
+        <v>1.014285714285718</v>
       </c>
       <c r="E4" t="n">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="F4" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="5">
@@ -5653,19 +6251,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.379999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2759999999999991</v>
+        <v>0.1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8699999999999999</v>
+        <v>0.3099999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="7">
@@ -5675,19 +6273,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7200000000000273</v>
+        <v>0.620000000000033</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1440000000000055</v>
+        <v>0.1240000000000066</v>
       </c>
       <c r="E7" t="n">
-        <v>0.72</v>
+        <v>0.62</v>
       </c>
       <c r="F7" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="8">
@@ -5697,19 +6295,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.149999999999977</v>
+        <v>2.649999999999977</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>1.429999999999995</v>
+        <v>0.5299999999999955</v>
       </c>
       <c r="E8" t="n">
-        <v>1.07</v>
+        <v>0.39</v>
       </c>
       <c r="F8" t="n">
-        <v>0.21</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="9">
@@ -5763,19 +6361,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1700000000000159</v>
+        <v>-1.679999999999978</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03400000000000318</v>
+        <v>-0.3359999999999957</v>
       </c>
       <c r="E11" t="n">
-        <v>0.09000000000000014</v>
+        <v>-1.23</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="12">
@@ -5785,19 +6383,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-32</v>
+        <v>-37</v>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.4</v>
+        <v>-7.4</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5199999999999999</v>
+        <v>-0.6</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="13">
@@ -5829,19 +6427,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1</v>
+        <v>-1.210000000000001</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.25</v>
+        <v>-0.3025000000000002</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.77</v>
+        <v>-2.14</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.44</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="15">
@@ -5873,19 +6471,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.100000000000001</v>
+        <v>-1.200000000000003</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2750000000000004</v>
+        <v>-0.3000000000000007</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.14</v>
+        <v>-2.33</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.54</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="17">
@@ -5983,19 +6581,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.0004000000000000115</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.0004000000000000115</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="22">
